--- a/测试/fill.xlsx
+++ b/测试/fill.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +262,10 @@
   </si>
   <si>
     <t>相关点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,276 +607,276 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
